--- a/docs/Normalisatie.xlsx
+++ b/docs/Normalisatie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\tovuti\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Wamp\www\tovuti\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Voornaam</t>
   </si>
@@ -123,6 +124,12 @@
   </si>
   <si>
     <t>Foreignkey</t>
+  </si>
+  <si>
+    <t>Betaalstatus</t>
+  </si>
+  <si>
+    <t>Betaalmethode</t>
   </si>
 </sst>
 </file>
@@ -515,7 +522,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,11 +607,11 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -620,6 +627,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
@@ -631,13 +641,19 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -645,18 +661,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
@@ -684,6 +700,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>